--- a/Template_apl_cycles.xlsx
+++ b/Template_apl_cycles.xlsx
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="79" t="n">
-        <v>80002130</v>
+        <v>9</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="89" spans="1:9" thickBot="1">
@@ -1658,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="75" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G44" s="90" t="n"/>
       <c r="H44" s="90" t="n"/>

--- a/Template_apl_cycles.xlsx
+++ b/Template_apl_cycles.xlsx
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="79" t="n">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="89" spans="1:9" thickBot="1">
@@ -1658,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="75" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G44" s="90" t="n"/>
       <c r="H44" s="90" t="n"/>

--- a/Template_apl_cycles.xlsx
+++ b/Template_apl_cycles.xlsx
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="79" t="n">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="89" spans="1:9" thickBot="1">
@@ -1658,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="75" t="n">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="G44" s="90" t="n"/>
       <c r="H44" s="90" t="n"/>

--- a/Template_apl_cycles.xlsx
+++ b/Template_apl_cycles.xlsx
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="79" t="n">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="89" spans="1:9" thickBot="1">
@@ -1658,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="75" t="n">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="G44" s="90" t="n"/>
       <c r="H44" s="90" t="n"/>

--- a/Template_apl_cycles.xlsx
+++ b/Template_apl_cycles.xlsx
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="79" t="n">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="89" spans="1:9" thickBot="1">
@@ -1658,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="75" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="G44" s="90" t="n"/>
       <c r="H44" s="90" t="n"/>

--- a/Template_apl_cycles.xlsx
+++ b/Template_apl_cycles.xlsx
@@ -828,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="33" t="n">
-        <v>80002121</v>
+        <v>98</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="36" spans="1:9" thickBot="1">
@@ -1242,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G44" s="37" t="n"/>
       <c r="H44" s="37" t="n"/>

--- a/Template_apl_cycles.xlsx
+++ b/Template_apl_cycles.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" windowHeight="11955" windowWidth="27495" xWindow="630" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet name="print1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">print1!$A$1:$J$44</definedName>
+  </definedNames>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -79,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -134,15 +136,6 @@
       <sz val="26"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <charset val="204"/>
       <family val="2"/>
@@ -158,6 +151,23 @@
       <color theme="1"/>
       <sz val="26"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="28"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,13 +251,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -260,14 +272,16 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -276,7 +290,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -288,62 +302,70 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -378,14 +400,35 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -393,55 +436,13 @@
     <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -450,22 +451,43 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle builtinId="0" name="Звичайний" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -763,126 +785,127 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScaleSheetLayoutView="100">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="36" width="9.7109375"/>
-    <col customWidth="1" max="5" min="4" style="36" width="20.7109375"/>
-    <col customWidth="1" max="7" min="6" style="36" width="9.7109375"/>
-    <col customWidth="1" max="8" min="8" style="36" width="10.7109375"/>
-    <col customWidth="1" max="9" min="9" style="36" width="30.7109375"/>
+    <col customWidth="1" max="3" min="1" style="27" width="9.7109375"/>
+    <col customWidth="1" max="5" min="4" style="27" width="20.7109375"/>
+    <col customWidth="1" max="7" min="6" style="27" width="9.7109375"/>
+    <col customWidth="1" max="8" min="8" style="27" width="10.7109375"/>
+    <col customWidth="1" max="9" min="9" style="27" width="30.7109375"/>
+    <col customWidth="1" max="10" min="10" style="27" width="3"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="33.75" r="1" s="36" spans="1:9">
+    <row customHeight="1" ht="33.75" r="1" s="27" spans="1:9">
       <c r="D1" s="5" t="n"/>
-      <c r="E1" s="34" t="n"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="26" t="n"/>
+      <c r="F1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="2" s="36" spans="1:9">
+    <row customHeight="1" ht="20.1" r="2" s="27" spans="1:9">
       <c r="A2" s="2" t="n"/>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="3" s="36" spans="1:9">
+    <row customHeight="1" ht="20.1" r="3" s="27" spans="1:9">
       <c r="A3" s="3" t="n"/>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="4" s="36" spans="1:9">
+    <row customHeight="1" ht="20.1" r="4" s="27" spans="1:9">
       <c r="A4" s="3" t="n"/>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="5" s="36" spans="1:9">
+    <row customHeight="1" ht="20.1" r="5" s="27" spans="1:9">
       <c r="A5" s="3" t="n"/>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="0.75" r="6" s="36" spans="1:9">
+    <row customHeight="1" ht="0.75" r="6" s="27" spans="1:9">
       <c r="A6" s="3" t="n"/>
-      <c r="D6" s="32" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="7" s="36" spans="1:9" thickBot="1">
+      <c r="D6" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="7" s="27" spans="1:9" thickBot="1">
       <c r="A7" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="8" s="36" spans="1:9" thickBot="1">
-      <c r="A8" s="22" t="s">
+    <row customHeight="1" ht="30" r="8" s="27" spans="1:9" thickBot="1">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="17" t="n"/>
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="n"/>
-      <c r="G8" s="20" t="n"/>
-      <c r="H8" s="23" t="s">
+      <c r="C8" s="14" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="E8" s="14" t="n"/>
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="33" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="9" s="36" spans="1:9" thickBot="1">
-      <c r="A9" s="17" t="n"/>
-      <c r="C9" s="17" t="n"/>
-      <c r="D9" s="17" t="n"/>
-      <c r="E9" s="17" t="n"/>
-      <c r="F9" s="17" t="n"/>
-      <c r="G9" s="17" t="n"/>
-      <c r="H9" s="17" t="n"/>
-      <c r="I9" s="17" t="n"/>
-    </row>
-    <row customHeight="1" ht="69.95" r="10" s="36" spans="1:9" thickBot="1">
-      <c r="A10" s="11" t="s">
+      <c r="I8" s="35" t="n">
+        <v>80002132</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="9" s="27" spans="1:9" thickBot="1">
+      <c r="A9" s="14" t="n"/>
+      <c r="C9" s="14" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="14" t="n"/>
+      <c r="F9" s="14" t="n"/>
+      <c r="G9" s="14" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="I9" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="69.95" r="10" s="27" spans="1:9" thickBot="1">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.1" r="11" s="36" spans="1:9">
-      <c r="A11" s="12" t="n"/>
-      <c r="B11" s="9" t="n"/>
-      <c r="C11" s="9" t="n"/>
-      <c r="D11" s="9" t="n"/>
-      <c r="E11" s="10" t="n"/>
-      <c r="F11" s="9" t="n"/>
-      <c r="G11" s="9" t="n"/>
-      <c r="H11" s="9" t="n"/>
-      <c r="I11" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="12" s="36" spans="1:9">
-      <c r="A12" s="13" t="n"/>
+    <row customHeight="1" ht="26.1" r="11" s="27" spans="1:9">
+      <c r="A11" s="29" t="n"/>
+      <c r="B11" s="30" t="n"/>
+      <c r="C11" s="30" t="n"/>
+      <c r="D11" s="30" t="n"/>
+      <c r="E11" s="31" t="n"/>
+      <c r="F11" s="30" t="n"/>
+      <c r="G11" s="30" t="n"/>
+      <c r="H11" s="30" t="n"/>
+      <c r="I11" s="32" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="12" s="27" spans="1:9">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="8" t="n"/>
@@ -890,10 +913,10 @@
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="H12" s="8" t="n"/>
-      <c r="I12" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="13" s="36" spans="1:9">
-      <c r="A13" s="13" t="n"/>
+      <c r="I12" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="13" s="27" spans="1:9">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n"/>
       <c r="D13" s="8" t="n"/>
@@ -901,10 +924,10 @@
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="H13" s="8" t="n"/>
-      <c r="I13" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="14" s="36" spans="1:9">
-      <c r="A14" s="13" t="n"/>
+      <c r="I13" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="14" s="27" spans="1:9">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="n"/>
       <c r="C14" s="8" t="n"/>
       <c r="D14" s="8" t="n"/>
@@ -912,10 +935,10 @@
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="H14" s="8" t="n"/>
-      <c r="I14" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="15" s="36" spans="1:9">
-      <c r="A15" s="13" t="n"/>
+      <c r="I14" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="15" s="27" spans="1:9">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n"/>
       <c r="D15" s="8" t="n"/>
@@ -923,10 +946,10 @@
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="H15" s="8" t="n"/>
-      <c r="I15" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="16" s="36" spans="1:9">
-      <c r="A16" s="13" t="n"/>
+      <c r="I15" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="16" s="27" spans="1:9">
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="n"/>
       <c r="D16" s="8" t="n"/>
@@ -934,10 +957,10 @@
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="H16" s="8" t="n"/>
-      <c r="I16" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="17" s="36" spans="1:9">
-      <c r="A17" s="13" t="n"/>
+      <c r="I16" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="17" s="27" spans="1:9">
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="8" t="n"/>
       <c r="C17" s="8" t="n"/>
       <c r="D17" s="8" t="n"/>
@@ -945,10 +968,10 @@
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="H17" s="8" t="n"/>
-      <c r="I17" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="18" s="36" spans="1:9">
-      <c r="A18" s="13" t="n"/>
+      <c r="I17" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="18" s="27" spans="1:9">
+      <c r="A18" s="10" t="n"/>
       <c r="B18" s="8" t="n"/>
       <c r="C18" s="8" t="n"/>
       <c r="D18" s="8" t="n"/>
@@ -956,10 +979,10 @@
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="H18" s="8" t="n"/>
-      <c r="I18" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="19" s="36" spans="1:9">
-      <c r="A19" s="13" t="n"/>
+      <c r="I18" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="19" s="27" spans="1:9">
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n"/>
       <c r="D19" s="8" t="n"/>
@@ -967,10 +990,10 @@
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="H19" s="8" t="n"/>
-      <c r="I19" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="20" s="36" spans="1:9">
-      <c r="A20" s="13" t="n"/>
+      <c r="I19" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="20" s="27" spans="1:9">
+      <c r="A20" s="10" t="n"/>
       <c r="B20" s="8" t="n"/>
       <c r="C20" s="8" t="n"/>
       <c r="D20" s="8" t="n"/>
@@ -978,10 +1001,10 @@
       <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="H20" s="8" t="n"/>
-      <c r="I20" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="21" s="36" spans="1:9">
-      <c r="A21" s="13" t="n"/>
+      <c r="I20" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="21" s="27" spans="1:9">
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="n"/>
       <c r="C21" s="8" t="n"/>
       <c r="D21" s="8" t="n"/>
@@ -989,10 +1012,10 @@
       <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="H21" s="8" t="n"/>
-      <c r="I21" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="22" s="36" spans="1:9">
-      <c r="A22" s="13" t="n"/>
+      <c r="I21" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="22" s="27" spans="1:9">
+      <c r="A22" s="10" t="n"/>
       <c r="B22" s="8" t="n"/>
       <c r="C22" s="8" t="n"/>
       <c r="D22" s="8" t="n"/>
@@ -1000,10 +1023,10 @@
       <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="H22" s="8" t="n"/>
-      <c r="I22" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="23" s="36" spans="1:9">
-      <c r="A23" s="13" t="n"/>
+      <c r="I22" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="23" s="27" spans="1:9">
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="8" t="n"/>
       <c r="C23" s="8" t="n"/>
       <c r="D23" s="8" t="n"/>
@@ -1011,10 +1034,10 @@
       <c r="F23" s="8" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="H23" s="8" t="n"/>
-      <c r="I23" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="24" s="36" spans="1:9">
-      <c r="A24" s="13" t="n"/>
+      <c r="I23" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="24" s="27" spans="1:9">
+      <c r="A24" s="10" t="n"/>
       <c r="B24" s="8" t="n"/>
       <c r="C24" s="8" t="n"/>
       <c r="D24" s="8" t="n"/>
@@ -1022,10 +1045,10 @@
       <c r="F24" s="8" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="H24" s="8" t="n"/>
-      <c r="I24" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="25" s="36" spans="1:9">
-      <c r="A25" s="13" t="n"/>
+      <c r="I24" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="25" s="27" spans="1:9">
+      <c r="A25" s="10" t="n"/>
       <c r="B25" s="8" t="n"/>
       <c r="C25" s="8" t="n"/>
       <c r="D25" s="8" t="n"/>
@@ -1033,10 +1056,10 @@
       <c r="F25" s="8" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="H25" s="8" t="n"/>
-      <c r="I25" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="26" s="36" spans="1:9">
-      <c r="A26" s="13" t="n"/>
+      <c r="I25" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="26" s="27" spans="1:9">
+      <c r="A26" s="10" t="n"/>
       <c r="B26" s="8" t="n"/>
       <c r="C26" s="8" t="n"/>
       <c r="D26" s="8" t="n"/>
@@ -1044,10 +1067,10 @@
       <c r="F26" s="8" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="H26" s="8" t="n"/>
-      <c r="I26" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="27" s="36" spans="1:9">
-      <c r="A27" s="13" t="n"/>
+      <c r="I26" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="27" s="27" spans="1:9">
+      <c r="A27" s="10" t="n"/>
       <c r="B27" s="8" t="n"/>
       <c r="C27" s="8" t="n"/>
       <c r="D27" s="8" t="n"/>
@@ -1055,10 +1078,10 @@
       <c r="F27" s="8" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="H27" s="8" t="n"/>
-      <c r="I27" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="28" s="36" spans="1:9">
-      <c r="A28" s="13" t="n"/>
+      <c r="I27" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="28" s="27" spans="1:9">
+      <c r="A28" s="10" t="n"/>
       <c r="B28" s="8" t="n"/>
       <c r="C28" s="8" t="n"/>
       <c r="D28" s="8" t="n"/>
@@ -1066,10 +1089,10 @@
       <c r="F28" s="8" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="H28" s="8" t="n"/>
-      <c r="I28" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="29" s="36" spans="1:9">
-      <c r="A29" s="13" t="n"/>
+      <c r="I28" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="29" s="27" spans="1:9">
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="8" t="n"/>
       <c r="C29" s="8" t="n"/>
       <c r="D29" s="8" t="n"/>
@@ -1077,10 +1100,10 @@
       <c r="F29" s="8" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="H29" s="8" t="n"/>
-      <c r="I29" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="30" s="36" spans="1:9">
-      <c r="A30" s="13" t="n"/>
+      <c r="I29" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="30" s="27" spans="1:9">
+      <c r="A30" s="10" t="n"/>
       <c r="B30" s="8" t="n"/>
       <c r="C30" s="8" t="n"/>
       <c r="D30" s="8" t="n"/>
@@ -1088,10 +1111,10 @@
       <c r="F30" s="8" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="H30" s="8" t="n"/>
-      <c r="I30" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="31" s="36" spans="1:9">
-      <c r="A31" s="13" t="n"/>
+      <c r="I30" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="31" s="27" spans="1:9">
+      <c r="A31" s="10" t="n"/>
       <c r="B31" s="8" t="n"/>
       <c r="C31" s="8" t="n"/>
       <c r="D31" s="8" t="n"/>
@@ -1099,10 +1122,10 @@
       <c r="F31" s="8" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="H31" s="8" t="n"/>
-      <c r="I31" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="32" s="36" spans="1:9">
-      <c r="A32" s="13" t="n"/>
+      <c r="I31" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="32" s="27" spans="1:9">
+      <c r="A32" s="10" t="n"/>
       <c r="B32" s="8" t="n"/>
       <c r="C32" s="8" t="n"/>
       <c r="D32" s="8" t="n"/>
@@ -1110,10 +1133,10 @@
       <c r="F32" s="8" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="H32" s="8" t="n"/>
-      <c r="I32" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="33" s="36" spans="1:9">
-      <c r="A33" s="13" t="n"/>
+      <c r="I32" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="33" s="27" spans="1:9">
+      <c r="A33" s="10" t="n"/>
       <c r="B33" s="8" t="n"/>
       <c r="C33" s="8" t="n"/>
       <c r="D33" s="8" t="n"/>
@@ -1121,10 +1144,10 @@
       <c r="F33" s="8" t="n"/>
       <c r="G33" s="8" t="n"/>
       <c r="H33" s="8" t="n"/>
-      <c r="I33" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="34" s="36" spans="1:9">
-      <c r="A34" s="13" t="n"/>
+      <c r="I33" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="34" s="27" spans="1:9">
+      <c r="A34" s="10" t="n"/>
       <c r="B34" s="8" t="n"/>
       <c r="C34" s="8" t="n"/>
       <c r="D34" s="8" t="n"/>
@@ -1132,10 +1155,10 @@
       <c r="F34" s="8" t="n"/>
       <c r="G34" s="8" t="n"/>
       <c r="H34" s="8" t="n"/>
-      <c r="I34" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="35" s="36" spans="1:9">
-      <c r="A35" s="13" t="n"/>
+      <c r="I34" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="35" s="27" spans="1:9">
+      <c r="A35" s="10" t="n"/>
       <c r="B35" s="8" t="n"/>
       <c r="C35" s="8" t="n"/>
       <c r="D35" s="8" t="n"/>
@@ -1143,10 +1166,10 @@
       <c r="F35" s="8" t="n"/>
       <c r="G35" s="8" t="n"/>
       <c r="H35" s="8" t="n"/>
-      <c r="I35" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="36" s="36" spans="1:9">
-      <c r="A36" s="13" t="n"/>
+      <c r="I35" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="36" s="27" spans="1:9">
+      <c r="A36" s="10" t="n"/>
       <c r="B36" s="8" t="n"/>
       <c r="C36" s="8" t="n"/>
       <c r="D36" s="8" t="n"/>
@@ -1154,10 +1177,10 @@
       <c r="F36" s="8" t="n"/>
       <c r="G36" s="8" t="n"/>
       <c r="H36" s="8" t="n"/>
-      <c r="I36" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="37" s="36" spans="1:9">
-      <c r="A37" s="13" t="n"/>
+      <c r="I36" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="37" s="27" spans="1:9">
+      <c r="A37" s="10" t="n"/>
       <c r="B37" s="8" t="n"/>
       <c r="C37" s="8" t="n"/>
       <c r="D37" s="8" t="n"/>
@@ -1165,10 +1188,10 @@
       <c r="F37" s="8" t="n"/>
       <c r="G37" s="8" t="n"/>
       <c r="H37" s="8" t="n"/>
-      <c r="I37" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="38" s="36" spans="1:9">
-      <c r="A38" s="13" t="n"/>
+      <c r="I37" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="38" s="27" spans="1:9">
+      <c r="A38" s="10" t="n"/>
       <c r="B38" s="8" t="n"/>
       <c r="C38" s="8" t="n"/>
       <c r="D38" s="8" t="n"/>
@@ -1176,10 +1199,10 @@
       <c r="F38" s="8" t="n"/>
       <c r="G38" s="8" t="n"/>
       <c r="H38" s="8" t="n"/>
-      <c r="I38" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="39" s="36" spans="1:9">
-      <c r="A39" s="13" t="n"/>
+      <c r="I38" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="39" s="27" spans="1:9">
+      <c r="A39" s="10" t="n"/>
       <c r="B39" s="8" t="n"/>
       <c r="C39" s="8" t="n"/>
       <c r="D39" s="8" t="n"/>
@@ -1187,10 +1210,10 @@
       <c r="F39" s="8" t="n"/>
       <c r="G39" s="8" t="n"/>
       <c r="H39" s="8" t="n"/>
-      <c r="I39" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="40" s="36" spans="1:9">
-      <c r="A40" s="13" t="n"/>
+      <c r="I39" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="40" s="27" spans="1:9">
+      <c r="A40" s="10" t="n"/>
       <c r="B40" s="8" t="n"/>
       <c r="C40" s="8" t="n"/>
       <c r="D40" s="8" t="n"/>
@@ -1198,10 +1221,10 @@
       <c r="F40" s="8" t="n"/>
       <c r="G40" s="8" t="n"/>
       <c r="H40" s="8" t="n"/>
-      <c r="I40" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="41" s="36" spans="1:9">
-      <c r="A41" s="13" t="n"/>
+      <c r="I40" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="41" s="27" spans="1:9">
+      <c r="A41" s="10" t="n"/>
       <c r="B41" s="8" t="n"/>
       <c r="C41" s="8" t="n"/>
       <c r="D41" s="8" t="n"/>
@@ -1209,10 +1232,10 @@
       <c r="F41" s="8" t="n"/>
       <c r="G41" s="8" t="n"/>
       <c r="H41" s="8" t="n"/>
-      <c r="I41" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="42" s="36" spans="1:9">
-      <c r="A42" s="13" t="n"/>
+      <c r="I41" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="42" s="27" spans="1:9">
+      <c r="A42" s="10" t="n"/>
       <c r="B42" s="8" t="n"/>
       <c r="C42" s="8" t="n"/>
       <c r="D42" s="8" t="n"/>
@@ -1220,52 +1243,52 @@
       <c r="F42" s="8" t="n"/>
       <c r="G42" s="8" t="n"/>
       <c r="H42" s="8" t="n"/>
-      <c r="I42" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="43" s="36" spans="1:9" thickBot="1">
-      <c r="A43" s="24" t="n"/>
-      <c r="B43" s="25" t="n"/>
-      <c r="C43" s="25" t="n"/>
-      <c r="D43" s="25" t="n"/>
-      <c r="E43" s="26" t="n"/>
-      <c r="F43" s="25" t="n"/>
-      <c r="G43" s="25" t="n"/>
-      <c r="H43" s="25" t="n"/>
-      <c r="I43" s="27" t="n"/>
-    </row>
-    <row customHeight="1" ht="16.5" r="44" s="36" spans="1:9" thickBot="1">
+      <c r="I42" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="43" s="27" spans="1:9" thickBot="1">
+      <c r="A43" s="19" t="n"/>
+      <c r="B43" s="20" t="n"/>
+      <c r="C43" s="20" t="n"/>
+      <c r="D43" s="20" t="n"/>
+      <c r="E43" s="21" t="n"/>
+      <c r="F43" s="20" t="n"/>
+      <c r="G43" s="20" t="n"/>
+      <c r="H43" s="20" t="n"/>
+      <c r="I43" s="34" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.5" r="44" s="27" spans="1:9" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="37" t="n"/>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="28" t="n"/>
+      <c r="E44" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="30" t="n">
-        <v>24</v>
-      </c>
-      <c r="G44" s="37" t="n"/>
-      <c r="H44" s="37" t="n"/>
-      <c r="I44" s="14" t="n">
+      <c r="F44" s="23" t="n">
+        <v>39</v>
+      </c>
+      <c r="G44" s="28" t="n"/>
+      <c r="H44" s="28" t="n"/>
+      <c r="I44" s="11" t="n">
         <v>42933</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="37" t="n"/>
-      <c r="B45" s="37" t="n"/>
-      <c r="C45" s="37" t="n"/>
-      <c r="D45" s="37" t="n"/>
+      <c r="A45" s="28" t="n"/>
+      <c r="B45" s="28" t="n"/>
+      <c r="C45" s="28" t="n"/>
+      <c r="D45" s="28" t="n"/>
       <c r="E45" s="6" t="n"/>
-      <c r="F45" s="37" t="n"/>
-      <c r="G45" s="37" t="n"/>
-      <c r="H45" s="37" t="n"/>
-      <c r="I45" s="37" t="n"/>
+      <c r="F45" s="28" t="n"/>
+      <c r="G45" s="28" t="n"/>
+      <c r="H45" s="28" t="n"/>
+      <c r="I45" s="28" t="n"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0" footer="0.3149606299212598" header="0.3149606299212598" left="0.2362204724409449" right="0.2362204724409449" top="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="75" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="70" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Template_apl_cycles.xlsx
+++ b/Template_apl_cycles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="11955" windowWidth="27495" xWindow="630" yWindow="600"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="print1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
   <definedNames>
     <definedName localSheetId="0" name="_xlnm.Print_Area">print1!$A$1:$J$44</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -851,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="35" t="n">
-        <v>80002132</v>
+        <v>89</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="27" spans="1:9" thickBot="1">
@@ -898,7 +898,9 @@
       <c r="B11" s="30" t="n"/>
       <c r="C11" s="30" t="n"/>
       <c r="D11" s="30" t="n"/>
-      <c r="E11" s="31" t="n"/>
+      <c r="E11" s="31" t="n">
+        <v>4001</v>
+      </c>
       <c r="F11" s="30" t="n"/>
       <c r="G11" s="30" t="n"/>
       <c r="H11" s="30" t="n"/>
@@ -1265,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="23" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G44" s="28" t="n"/>
       <c r="H44" s="28" t="n"/>
